--- a/data/trans_orig/P36B01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B01_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4149C8-1C72-4A26-BE62-12C2DA2D962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A1E541-A68F-45C7-8241-1877C224BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD1B233D-1A73-443B-B7D3-01FE94C1AC0A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2DA9067-0A4E-49BE-BCF6-BFE205B98BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>94,44%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,56%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,160 +251,160 @@
     <t>91,15%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
     <t>89,95%</t>
   </si>
   <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>5,44%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C572DC4-DFD9-486F-A4E0-F7DFB4D47486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6303E00F-33BB-4442-B56D-5893FA296DEE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1715,7 +1715,7 @@
         <v>3185</v>
       </c>
       <c r="D19" s="7">
-        <v>3199803</v>
+        <v>3199804</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1739,7 +1739,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>8278</v>
@@ -1748,13 +1748,13 @@
         <v>6826291</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,10 +1787,10 @@
         <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
@@ -1799,10 +1799,10 @@
         <v>342177</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -1817,7 +1817,7 @@
         <v>3364</v>
       </c>
       <c r="D21" s="7">
-        <v>3368024</v>
+        <v>3368025</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
